--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130870819</v>
       </c>
       <c r="B2" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130870805</v>
+        <v>130870796</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>582703</v>
+        <v>582707</v>
       </c>
       <c r="R3" t="n">
-        <v>6959774</v>
+        <v>6959492</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -887,10 +887,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130870796</v>
+        <v>130870805</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>582707</v>
+        <v>582703</v>
       </c>
       <c r="R4" t="n">
-        <v>6959492</v>
+        <v>6959774</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1000,7 +1000,7 @@
         <v>130870814</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130870821</v>
+        <v>130870801</v>
       </c>
       <c r="B6" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1118,30 +1118,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>583201</v>
+        <v>582506</v>
       </c>
       <c r="R6" t="n">
-        <v>6959397</v>
+        <v>6959596</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1174,6 +1186,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1200,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130870801</v>
+        <v>130870821</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1211,42 +1228,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>582506</v>
+        <v>583201</v>
       </c>
       <c r="R7" t="n">
-        <v>6959596</v>
+        <v>6959397</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1279,11 +1284,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1313,7 +1313,7 @@
         <v>130870830</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130870828</v>
+        <v>130870802</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,34 +1418,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>583216</v>
+        <v>582715</v>
       </c>
       <c r="R9" t="n">
-        <v>6959386</v>
+        <v>6959670</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1478,6 +1486,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1504,10 +1517,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130870826</v>
+        <v>130870828</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1539,10 +1552,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>582992</v>
+        <v>583216</v>
       </c>
       <c r="R10" t="n">
-        <v>6959624</v>
+        <v>6959386</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1601,10 +1614,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130870802</v>
+        <v>130870826</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,42 +1625,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>582715</v>
+        <v>582992</v>
       </c>
       <c r="R11" t="n">
-        <v>6959670</v>
+        <v>6959624</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1680,11 +1685,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1714,7 +1714,7 @@
         <v>130870829</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1811,7 +1811,7 @@
         <v>130870807</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>130870822</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>130870818</v>
       </c>
       <c r="B15" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>130870792</v>
       </c>
       <c r="B16" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>130870831</v>
       </c>
       <c r="B17" t="n">
-        <v>83085</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130870823</v>
+        <v>130870797</v>
       </c>
       <c r="B18" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,34 +2317,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582529</v>
+        <v>582602</v>
       </c>
       <c r="R18" t="n">
-        <v>6959663</v>
+        <v>6959501</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2381,7 +2389,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Med apothecier</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2408,45 +2416,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130870816</v>
+        <v>130870795</v>
       </c>
       <c r="B19" t="n">
-        <v>80373</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>582711</v>
+        <v>583098</v>
       </c>
       <c r="R19" t="n">
-        <v>6959664</v>
+        <v>6959481</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2479,6 +2495,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2505,10 +2526,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130870795</v>
+        <v>130870798</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2538,7 +2559,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2548,10 +2569,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>583098</v>
+        <v>582557</v>
       </c>
       <c r="R20" t="n">
-        <v>6959481</v>
+        <v>6959519</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2588,7 +2609,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2615,53 +2636,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870798</v>
+        <v>130870817</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>91819</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1205</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>582557</v>
+        <v>582663</v>
       </c>
       <c r="R21" t="n">
-        <v>6959519</v>
+        <v>6959537</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2694,11 +2707,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2725,10 +2733,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130870797</v>
+        <v>130870823</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2736,42 +2744,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>582602</v>
+        <v>582529</v>
       </c>
       <c r="R22" t="n">
-        <v>6959501</v>
+        <v>6959663</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2835,10 +2835,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130870817</v>
+        <v>130870816</v>
       </c>
       <c r="B23" t="n">
-        <v>91815</v>
+        <v>80377</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>582663</v>
+        <v>582711</v>
       </c>
       <c r="R23" t="n">
-        <v>6959537</v>
+        <v>6959664</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130870820</v>
+        <v>130870803</v>
       </c>
       <c r="B24" t="n">
-        <v>80344</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2943,34 +2943,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>583054</v>
+        <v>582704</v>
       </c>
       <c r="R24" t="n">
-        <v>6959569</v>
+        <v>6959675</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3003,6 +3011,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3029,10 +3042,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130870803</v>
+        <v>130870820</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3040,42 +3053,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>582704</v>
+        <v>583054</v>
       </c>
       <c r="R25" t="n">
-        <v>6959675</v>
+        <v>6959569</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3108,11 +3113,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3142,7 +3142,7 @@
         <v>130870800</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>130870815</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
         <v>130870825</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         <v>130870824</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870794</v>
+        <v>130870804</v>
       </c>
       <c r="B30" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,34 +3564,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583237</v>
+        <v>582667</v>
       </c>
       <c r="R30" t="n">
-        <v>6959408</v>
+        <v>6959804</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3624,6 +3632,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3650,10 +3663,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130870827</v>
+        <v>130870799</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3661,34 +3674,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>583142</v>
+        <v>582540</v>
       </c>
       <c r="R31" t="n">
-        <v>6959494</v>
+        <v>6959611</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3721,6 +3742,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3747,10 +3773,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130870804</v>
+        <v>130870794</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3758,42 +3784,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>582667</v>
+        <v>583237</v>
       </c>
       <c r="R32" t="n">
-        <v>6959804</v>
+        <v>6959408</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3826,11 +3844,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3857,10 +3870,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130870799</v>
+        <v>130870827</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3868,42 +3881,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>582540</v>
+        <v>583142</v>
       </c>
       <c r="R33" t="n">
-        <v>6959611</v>
+        <v>6959494</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3936,11 +3941,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3970,7 +3970,7 @@
         <v>130870832</v>
       </c>
       <c r="B34" t="n">
-        <v>80379</v>
+        <v>80383</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4064,10 +4064,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130870811</v>
+        <v>130870812</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>582879</v>
+        <v>582898</v>
       </c>
       <c r="R35" t="n">
-        <v>6959670</v>
+        <v>6959678</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4174,10 +4174,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130870812</v>
+        <v>130870811</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>582898</v>
+        <v>582879</v>
       </c>
       <c r="R36" t="n">
-        <v>6959678</v>
+        <v>6959670</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4287,7 +4287,7 @@
         <v>130870791</v>
       </c>
       <c r="B37" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130870810</v>
+        <v>130870808</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4414,7 +4414,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>582825</v>
+        <v>582781</v>
       </c>
       <c r="R38" t="n">
-        <v>6959676</v>
+        <v>6959717</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4491,10 +4491,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130870808</v>
+        <v>130870810</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>582781</v>
+        <v>582825</v>
       </c>
       <c r="R39" t="n">
-        <v>6959717</v>
+        <v>6959676</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4604,7 +4604,7 @@
         <v>130870813</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>130870806</v>
       </c>
       <c r="B41" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -2306,53 +2306,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130870797</v>
+        <v>130870817</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>91819</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1205</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582602</v>
+        <v>582663</v>
       </c>
       <c r="R18" t="n">
-        <v>6959501</v>
+        <v>6959537</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2385,11 +2377,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2416,10 +2403,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130870795</v>
+        <v>130870823</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2427,42 +2414,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>583098</v>
+        <v>582529</v>
       </c>
       <c r="R19" t="n">
-        <v>6959481</v>
+        <v>6959663</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2499,7 +2478,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2526,53 +2505,45 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130870798</v>
+        <v>130870816</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>80377</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>582557</v>
+        <v>582711</v>
       </c>
       <c r="R20" t="n">
-        <v>6959519</v>
+        <v>6959664</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2605,11 +2576,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2636,45 +2602,53 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870817</v>
+        <v>130870797</v>
       </c>
       <c r="B21" t="n">
-        <v>91819</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1205</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>582663</v>
+        <v>582602</v>
       </c>
       <c r="R21" t="n">
-        <v>6959537</v>
+        <v>6959501</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2707,6 +2681,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2733,10 +2712,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130870823</v>
+        <v>130870795</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2744,34 +2723,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>582529</v>
+        <v>583098</v>
       </c>
       <c r="R22" t="n">
-        <v>6959663</v>
+        <v>6959481</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2808,7 +2795,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Med apothecier</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2835,45 +2822,53 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130870816</v>
+        <v>130870798</v>
       </c>
       <c r="B23" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>582711</v>
+        <v>582557</v>
       </c>
       <c r="R23" t="n">
-        <v>6959664</v>
+        <v>6959519</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2906,6 +2901,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -777,7 +777,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130870796</v>
+        <v>130870805</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -810,7 +810,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>582707</v>
+        <v>582703</v>
       </c>
       <c r="R3" t="n">
-        <v>6959492</v>
+        <v>6959774</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -860,7 +860,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -887,7 +887,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130870805</v>
+        <v>130870796</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -920,7 +920,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>582703</v>
+        <v>582707</v>
       </c>
       <c r="R4" t="n">
-        <v>6959774</v>
+        <v>6959492</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1407,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130870802</v>
+        <v>130870828</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,42 +1418,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>582715</v>
+        <v>583216</v>
       </c>
       <c r="R9" t="n">
-        <v>6959670</v>
+        <v>6959386</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1486,11 +1478,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1517,7 +1504,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130870828</v>
+        <v>130870826</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1552,10 +1539,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>583216</v>
+        <v>582992</v>
       </c>
       <c r="R10" t="n">
-        <v>6959386</v>
+        <v>6959624</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1614,10 +1601,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130870826</v>
+        <v>130870802</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1625,34 +1612,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>582992</v>
+        <v>582715</v>
       </c>
       <c r="R11" t="n">
-        <v>6959624</v>
+        <v>6959670</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1685,6 +1680,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2602,7 +2602,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870797</v>
+        <v>130870795</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2635,7 +2635,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>582602</v>
+        <v>583098</v>
       </c>
       <c r="R21" t="n">
-        <v>6959501</v>
+        <v>6959481</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2712,7 +2712,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130870795</v>
+        <v>130870798</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2745,7 +2745,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>583098</v>
+        <v>582557</v>
       </c>
       <c r="R22" t="n">
-        <v>6959481</v>
+        <v>6959519</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2822,7 +2822,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130870798</v>
+        <v>130870797</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>582557</v>
+        <v>582602</v>
       </c>
       <c r="R23" t="n">
-        <v>6959519</v>
+        <v>6959501</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130870803</v>
+        <v>130870820</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2943,42 +2943,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>582704</v>
+        <v>583054</v>
       </c>
       <c r="R24" t="n">
-        <v>6959675</v>
+        <v>6959569</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3011,11 +3003,6 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3042,10 +3029,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130870820</v>
+        <v>130870803</v>
       </c>
       <c r="B25" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3053,34 +3040,42 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>583054</v>
+        <v>582704</v>
       </c>
       <c r="R25" t="n">
-        <v>6959569</v>
+        <v>6959675</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3113,6 +3108,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3249,10 +3249,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130870815</v>
+        <v>130870825</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3260,42 +3260,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>583170</v>
+        <v>582799</v>
       </c>
       <c r="R27" t="n">
-        <v>6959447</v>
+        <v>6959667</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3328,11 +3320,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3359,7 +3346,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130870825</v>
+        <v>130870824</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3394,10 +3381,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>582799</v>
+        <v>582685</v>
       </c>
       <c r="R28" t="n">
-        <v>6959667</v>
+        <v>6959786</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3456,10 +3443,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130870824</v>
+        <v>130870815</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3467,34 +3454,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>582685</v>
+        <v>583170</v>
       </c>
       <c r="R29" t="n">
-        <v>6959786</v>
+        <v>6959447</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3527,6 +3522,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870804</v>
+        <v>130870827</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,42 +3564,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>582667</v>
+        <v>583142</v>
       </c>
       <c r="R30" t="n">
-        <v>6959804</v>
+        <v>6959494</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3632,11 +3624,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3663,10 +3650,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130870799</v>
+        <v>130870794</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3674,42 +3661,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>582540</v>
+        <v>583237</v>
       </c>
       <c r="R31" t="n">
-        <v>6959611</v>
+        <v>6959408</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3742,11 +3721,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3773,10 +3747,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130870794</v>
+        <v>130870804</v>
       </c>
       <c r="B32" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3784,34 +3758,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>583237</v>
+        <v>582667</v>
       </c>
       <c r="R32" t="n">
-        <v>6959408</v>
+        <v>6959804</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3844,6 +3826,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3870,10 +3857,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130870827</v>
+        <v>130870799</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3881,34 +3868,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>583142</v>
+        <v>582540</v>
       </c>
       <c r="R33" t="n">
-        <v>6959494</v>
+        <v>6959611</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3941,6 +3936,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4064,7 +4064,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130870812</v>
+        <v>130870811</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4097,7 +4097,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>582898</v>
+        <v>582879</v>
       </c>
       <c r="R35" t="n">
-        <v>6959678</v>
+        <v>6959670</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4174,7 +4174,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130870811</v>
+        <v>130870812</v>
       </c>
       <c r="B36" t="n">
         <v>57884</v>
@@ -4207,7 +4207,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>582879</v>
+        <v>582898</v>
       </c>
       <c r="R36" t="n">
-        <v>6959670</v>
+        <v>6959678</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4381,7 +4381,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130870808</v>
+        <v>130870810</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4414,7 +4414,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4424,10 +4424,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>582781</v>
+        <v>582825</v>
       </c>
       <c r="R38" t="n">
-        <v>6959717</v>
+        <v>6959676</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4491,7 +4491,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130870810</v>
+        <v>130870808</v>
       </c>
       <c r="B39" t="n">
         <v>57884</v>
@@ -4524,7 +4524,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -4534,10 +4534,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>582825</v>
+        <v>582781</v>
       </c>
       <c r="R39" t="n">
-        <v>6959676</v>
+        <v>6959717</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870827</v>
+        <v>130870794</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,21 +3564,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583142</v>
+        <v>583237</v>
       </c>
       <c r="R30" t="n">
-        <v>6959494</v>
+        <v>6959408</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130870794</v>
+        <v>130870827</v>
       </c>
       <c r="B31" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3661,21 +3661,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>583237</v>
+        <v>583142</v>
       </c>
       <c r="R31" t="n">
-        <v>6959408</v>
+        <v>6959494</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -2015,32 +2015,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130870818</v>
+        <v>130870831</v>
       </c>
       <c r="B15" t="n">
-        <v>92267</v>
+        <v>83089</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>583241</v>
+        <v>583209</v>
       </c>
       <c r="R15" t="n">
-        <v>6959405</v>
+        <v>6959416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2112,32 +2112,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130870792</v>
+        <v>130870818</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>583131</v>
+        <v>583241</v>
       </c>
       <c r="R16" t="n">
-        <v>6959482</v>
+        <v>6959405</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130870831</v>
+        <v>130870792</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2220,21 +2220,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583209</v>
+        <v>583131</v>
       </c>
       <c r="R17" t="n">
-        <v>6959416</v>
+        <v>6959482</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130870817</v>
+        <v>130870816</v>
       </c>
       <c r="B18" t="n">
-        <v>91819</v>
+        <v>80377</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,21 +2317,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1205</v>
+        <v>6462</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582663</v>
+        <v>582711</v>
       </c>
       <c r="R18" t="n">
-        <v>6959537</v>
+        <v>6959664</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2403,32 +2403,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130870823</v>
+        <v>130870817</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>91819</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1205</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2438,10 +2438,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>582529</v>
+        <v>582663</v>
       </c>
       <c r="R19" t="n">
-        <v>6959663</v>
+        <v>6959537</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2474,11 +2474,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2505,45 +2500,53 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130870816</v>
+        <v>130870795</v>
       </c>
       <c r="B20" t="n">
-        <v>80377</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>582711</v>
+        <v>583098</v>
       </c>
       <c r="R20" t="n">
-        <v>6959664</v>
+        <v>6959481</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2576,6 +2579,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2602,10 +2610,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870795</v>
+        <v>130870823</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2613,42 +2621,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>583098</v>
+        <v>582529</v>
       </c>
       <c r="R21" t="n">
-        <v>6959481</v>
+        <v>6959663</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3249,7 +3249,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130870825</v>
+        <v>130870824</v>
       </c>
       <c r="B27" t="n">
         <v>79243</v>
@@ -3284,10 +3284,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>582799</v>
+        <v>582685</v>
       </c>
       <c r="R27" t="n">
-        <v>6959667</v>
+        <v>6959786</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3346,10 +3346,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130870824</v>
+        <v>130870815</v>
       </c>
       <c r="B28" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3357,34 +3357,42 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>582685</v>
+        <v>583170</v>
       </c>
       <c r="R28" t="n">
-        <v>6959786</v>
+        <v>6959447</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3417,6 +3425,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3443,10 +3456,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130870815</v>
+        <v>130870825</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3454,42 +3467,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>583170</v>
+        <v>582799</v>
       </c>
       <c r="R29" t="n">
-        <v>6959447</v>
+        <v>6959667</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3522,11 +3527,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870794</v>
+        <v>130870827</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,21 +3564,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583237</v>
+        <v>583142</v>
       </c>
       <c r="R30" t="n">
-        <v>6959408</v>
+        <v>6959494</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130870827</v>
+        <v>130870804</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3661,34 +3661,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>583142</v>
+        <v>582667</v>
       </c>
       <c r="R31" t="n">
-        <v>6959494</v>
+        <v>6959804</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3721,6 +3729,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3747,7 +3760,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130870804</v>
+        <v>130870799</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -3780,7 +3793,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -3790,10 +3803,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>582667</v>
+        <v>582540</v>
       </c>
       <c r="R32" t="n">
-        <v>6959804</v>
+        <v>6959611</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3830,7 +3843,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3857,10 +3870,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130870799</v>
+        <v>130870794</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3868,42 +3881,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>582540</v>
+        <v>583237</v>
       </c>
       <c r="R33" t="n">
-        <v>6959611</v>
+        <v>6959408</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3936,11 +3941,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall. Hela stammen full.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4284,10 +4284,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130870791</v>
+        <v>130870810</v>
       </c>
       <c r="B37" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4295,34 +4295,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>582769</v>
+        <v>582825</v>
       </c>
       <c r="R37" t="n">
-        <v>6959516</v>
+        <v>6959676</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4355,6 +4363,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4381,7 +4394,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130870810</v>
+        <v>130870808</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4414,7 +4427,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4424,10 +4437,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>582825</v>
+        <v>582781</v>
       </c>
       <c r="R38" t="n">
-        <v>6959676</v>
+        <v>6959717</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4464,7 +4477,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4491,10 +4504,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130870808</v>
+        <v>130870791</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4502,42 +4515,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>582781</v>
+        <v>582769</v>
       </c>
       <c r="R39" t="n">
-        <v>6959717</v>
+        <v>6959516</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4570,11 +4575,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130870819</v>
+        <v>130870796</v>
       </c>
       <c r="B2" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>583057</v>
+        <v>582707</v>
       </c>
       <c r="R2" t="n">
-        <v>6959583</v>
+        <v>6959492</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,6 +759,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,10 +790,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130870805</v>
+        <v>130870819</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,42 +801,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>582703</v>
+        <v>583057</v>
       </c>
       <c r="R3" t="n">
-        <v>6959774</v>
+        <v>6959583</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -856,11 +861,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -887,7 +887,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130870796</v>
+        <v>130870805</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -920,7 +920,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>582707</v>
+        <v>582703</v>
       </c>
       <c r="R4" t="n">
-        <v>6959492</v>
+        <v>6959774</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1107,10 +1107,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130870801</v>
+        <v>130870821</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1118,42 +1118,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>582506</v>
+        <v>583201</v>
       </c>
       <c r="R6" t="n">
-        <v>6959596</v>
+        <v>6959397</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1186,11 +1174,6 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1217,10 +1200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130870821</v>
+        <v>130870801</v>
       </c>
       <c r="B7" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1228,30 +1211,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>583201</v>
+        <v>582506</v>
       </c>
       <c r="R7" t="n">
-        <v>6959397</v>
+        <v>6959596</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1284,6 +1279,11 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1407,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130870828</v>
+        <v>130870802</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,34 +1418,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>583216</v>
+        <v>582715</v>
       </c>
       <c r="R9" t="n">
-        <v>6959386</v>
+        <v>6959670</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1478,6 +1486,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1504,7 +1517,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130870826</v>
+        <v>130870828</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1539,10 +1552,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>582992</v>
+        <v>583216</v>
       </c>
       <c r="R10" t="n">
-        <v>6959624</v>
+        <v>6959386</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1601,10 +1614,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130870802</v>
+        <v>130870826</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1612,42 +1625,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>582715</v>
+        <v>582992</v>
       </c>
       <c r="R11" t="n">
-        <v>6959670</v>
+        <v>6959624</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1680,11 +1685,6 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2015,32 +2015,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130870831</v>
+        <v>130870818</v>
       </c>
       <c r="B15" t="n">
-        <v>83089</v>
+        <v>92267</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>583209</v>
+        <v>583241</v>
       </c>
       <c r="R15" t="n">
-        <v>6959416</v>
+        <v>6959405</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2112,32 +2112,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130870818</v>
+        <v>130870792</v>
       </c>
       <c r="B16" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>583241</v>
+        <v>583131</v>
       </c>
       <c r="R16" t="n">
-        <v>6959405</v>
+        <v>6959482</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130870792</v>
+        <v>130870831</v>
       </c>
       <c r="B17" t="n">
-        <v>91808</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2220,21 +2220,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583131</v>
+        <v>583209</v>
       </c>
       <c r="R17" t="n">
-        <v>6959482</v>
+        <v>6959416</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130870816</v>
+        <v>130870817</v>
       </c>
       <c r="B18" t="n">
-        <v>80377</v>
+        <v>91819</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2317,21 +2317,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582711</v>
+        <v>582663</v>
       </c>
       <c r="R18" t="n">
-        <v>6959664</v>
+        <v>6959537</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2403,45 +2403,53 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130870817</v>
+        <v>130870795</v>
       </c>
       <c r="B19" t="n">
-        <v>91819</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1205</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>582663</v>
+        <v>583098</v>
       </c>
       <c r="R19" t="n">
-        <v>6959537</v>
+        <v>6959481</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2474,6 +2482,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2500,7 +2513,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130870795</v>
+        <v>130870798</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2533,7 +2546,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2543,10 +2556,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>583098</v>
+        <v>582557</v>
       </c>
       <c r="R20" t="n">
-        <v>6959481</v>
+        <v>6959519</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2583,7 +2596,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2610,10 +2623,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870823</v>
+        <v>130870797</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2621,34 +2634,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>582529</v>
+        <v>582602</v>
       </c>
       <c r="R21" t="n">
-        <v>6959663</v>
+        <v>6959501</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2685,7 +2706,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Med apothecier</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2712,10 +2733,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130870798</v>
+        <v>130870823</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2723,42 +2744,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>582557</v>
+        <v>582529</v>
       </c>
       <c r="R22" t="n">
-        <v>6959519</v>
+        <v>6959663</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2795,7 +2808,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2822,53 +2835,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130870797</v>
+        <v>130870816</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>80377</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>582602</v>
+        <v>582711</v>
       </c>
       <c r="R23" t="n">
-        <v>6959501</v>
+        <v>6959664</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2901,11 +2906,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2932,10 +2932,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130870820</v>
+        <v>130870803</v>
       </c>
       <c r="B24" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2943,34 +2943,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>583054</v>
+        <v>582704</v>
       </c>
       <c r="R24" t="n">
-        <v>6959569</v>
+        <v>6959675</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3003,6 +3011,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3029,10 +3042,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130870803</v>
+        <v>130870820</v>
       </c>
       <c r="B25" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3040,42 +3053,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>582704</v>
+        <v>583054</v>
       </c>
       <c r="R25" t="n">
-        <v>6959675</v>
+        <v>6959569</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3108,11 +3113,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3249,10 +3249,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130870824</v>
+        <v>130870815</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3260,34 +3260,42 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>582685</v>
+        <v>583170</v>
       </c>
       <c r="R27" t="n">
-        <v>6959786</v>
+        <v>6959447</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3320,6 +3328,11 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3346,10 +3359,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130870815</v>
+        <v>130870825</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3357,42 +3370,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>583170</v>
+        <v>582799</v>
       </c>
       <c r="R28" t="n">
-        <v>6959447</v>
+        <v>6959667</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3425,11 +3430,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3456,7 +3456,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130870825</v>
+        <v>130870824</v>
       </c>
       <c r="B29" t="n">
         <v>79243</v>
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>582799</v>
+        <v>582685</v>
       </c>
       <c r="R29" t="n">
-        <v>6959667</v>
+        <v>6959786</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870827</v>
+        <v>130870794</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,21 +3564,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583142</v>
+        <v>583237</v>
       </c>
       <c r="R30" t="n">
-        <v>6959494</v>
+        <v>6959408</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130870794</v>
+        <v>130870827</v>
       </c>
       <c r="B33" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3881,21 +3881,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>583237</v>
+        <v>583142</v>
       </c>
       <c r="R33" t="n">
-        <v>6959408</v>
+        <v>6959494</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3967,45 +3967,53 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130870832</v>
+        <v>130870811</v>
       </c>
       <c r="B34" t="n">
-        <v>80383</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>583054</v>
+        <v>582879</v>
       </c>
       <c r="R34" t="n">
-        <v>6959568</v>
+        <v>6959670</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4038,6 +4046,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4064,7 +4077,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130870811</v>
+        <v>130870812</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4097,7 +4110,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4107,10 +4120,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>582879</v>
+        <v>582898</v>
       </c>
       <c r="R35" t="n">
-        <v>6959670</v>
+        <v>6959678</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4147,7 +4160,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4174,53 +4187,45 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130870812</v>
+        <v>130870832</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>80383</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>582898</v>
+        <v>583054</v>
       </c>
       <c r="R36" t="n">
-        <v>6959678</v>
+        <v>6959568</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4253,11 +4258,6 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4284,10 +4284,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130870810</v>
+        <v>130870791</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4295,42 +4295,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>582825</v>
+        <v>582769</v>
       </c>
       <c r="R37" t="n">
-        <v>6959676</v>
+        <v>6959516</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4363,11 +4355,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4394,7 +4381,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130870808</v>
+        <v>130870810</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4427,7 +4414,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4437,10 +4424,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>582781</v>
+        <v>582825</v>
       </c>
       <c r="R38" t="n">
-        <v>6959717</v>
+        <v>6959676</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4477,7 +4464,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4504,10 +4491,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130870791</v>
+        <v>130870808</v>
       </c>
       <c r="B39" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4515,34 +4502,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>582769</v>
+        <v>582781</v>
       </c>
       <c r="R39" t="n">
-        <v>6959516</v>
+        <v>6959717</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4575,6 +4570,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">

--- a/artfynd/A 62375-2025 artfynd.xlsx
+++ b/artfynd/A 62375-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130870796</v>
+        <v>130870819</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,42 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>582707</v>
+        <v>583057</v>
       </c>
       <c r="R2" t="n">
-        <v>6959492</v>
+        <v>6959583</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -759,11 +751,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130870819</v>
+        <v>130870805</v>
       </c>
       <c r="B3" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -801,34 +788,42 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>583057</v>
+        <v>582703</v>
       </c>
       <c r="R3" t="n">
-        <v>6959583</v>
+        <v>6959774</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -861,6 +856,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -887,7 +887,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130870805</v>
+        <v>130870796</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -920,7 +920,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>582703</v>
+        <v>582707</v>
       </c>
       <c r="R4" t="n">
-        <v>6959774</v>
+        <v>6959492</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1517,7 +1517,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130870828</v>
+        <v>130870826</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>583216</v>
+        <v>582992</v>
       </c>
       <c r="R10" t="n">
-        <v>6959386</v>
+        <v>6959624</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130870826</v>
+        <v>130870828</v>
       </c>
       <c r="B11" t="n">
         <v>79243</v>
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>582992</v>
+        <v>583216</v>
       </c>
       <c r="R11" t="n">
-        <v>6959624</v>
+        <v>6959386</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2015,32 +2015,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130870818</v>
+        <v>130870831</v>
       </c>
       <c r="B15" t="n">
-        <v>92267</v>
+        <v>83089</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2050,10 +2050,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>583241</v>
+        <v>583209</v>
       </c>
       <c r="R15" t="n">
-        <v>6959405</v>
+        <v>6959416</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2112,32 +2112,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130870792</v>
+        <v>130870818</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2147,10 +2147,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>583131</v>
+        <v>583241</v>
       </c>
       <c r="R16" t="n">
-        <v>6959482</v>
+        <v>6959405</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2209,10 +2209,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130870831</v>
+        <v>130870792</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>91808</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2220,21 +2220,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>583209</v>
+        <v>583131</v>
       </c>
       <c r="R17" t="n">
-        <v>6959416</v>
+        <v>6959482</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2306,32 +2306,32 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130870817</v>
+        <v>130870823</v>
       </c>
       <c r="B18" t="n">
-        <v>91819</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1205</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2341,10 +2341,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>582663</v>
+        <v>582529</v>
       </c>
       <c r="R18" t="n">
-        <v>6959537</v>
+        <v>6959663</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2377,6 +2377,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Med apothecier</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2403,53 +2408,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130870795</v>
+        <v>130870816</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>80377</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>583098</v>
+        <v>582711</v>
       </c>
       <c r="R19" t="n">
-        <v>6959481</v>
+        <v>6959664</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2482,11 +2479,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2513,7 +2505,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130870798</v>
+        <v>130870795</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2546,7 +2538,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2556,10 +2548,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>582557</v>
+        <v>583098</v>
       </c>
       <c r="R20" t="n">
-        <v>6959519</v>
+        <v>6959481</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2596,7 +2588,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2623,7 +2615,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130870797</v>
+        <v>130870798</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2666,10 +2658,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>582602</v>
+        <v>582557</v>
       </c>
       <c r="R21" t="n">
-        <v>6959501</v>
+        <v>6959519</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2733,10 +2725,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130870823</v>
+        <v>130870797</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2744,34 +2736,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>582529</v>
+        <v>582602</v>
       </c>
       <c r="R22" t="n">
-        <v>6959663</v>
+        <v>6959501</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Med apothecier</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2835,10 +2835,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130870816</v>
+        <v>130870817</v>
       </c>
       <c r="B23" t="n">
-        <v>80377</v>
+        <v>91819</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2846,21 +2846,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>1205</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>582711</v>
+        <v>582663</v>
       </c>
       <c r="R23" t="n">
-        <v>6959664</v>
+        <v>6959537</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3249,10 +3249,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130870815</v>
+        <v>130870825</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3260,42 +3260,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>583170</v>
+        <v>582799</v>
       </c>
       <c r="R27" t="n">
-        <v>6959447</v>
+        <v>6959667</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3328,11 +3320,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3359,7 +3346,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130870825</v>
+        <v>130870824</v>
       </c>
       <c r="B28" t="n">
         <v>79243</v>
@@ -3394,10 +3381,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>582799</v>
+        <v>582685</v>
       </c>
       <c r="R28" t="n">
-        <v>6959667</v>
+        <v>6959786</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3456,10 +3443,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130870824</v>
+        <v>130870815</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3467,34 +3454,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>582685</v>
+        <v>583170</v>
       </c>
       <c r="R29" t="n">
-        <v>6959786</v>
+        <v>6959447</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3527,6 +3522,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3553,10 +3553,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130870794</v>
+        <v>130870827</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3564,21 +3564,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3588,10 +3588,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>583237</v>
+        <v>583142</v>
       </c>
       <c r="R30" t="n">
-        <v>6959408</v>
+        <v>6959494</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130870827</v>
+        <v>130870794</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>91808</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3881,21 +3881,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>583142</v>
+        <v>583237</v>
       </c>
       <c r="R33" t="n">
-        <v>6959494</v>
+        <v>6959408</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3967,53 +3967,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130870811</v>
+        <v>130870832</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>80383</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>582879</v>
+        <v>583054</v>
       </c>
       <c r="R34" t="n">
-        <v>6959670</v>
+        <v>6959568</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4046,11 +4038,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4077,7 +4064,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130870812</v>
+        <v>130870811</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4110,7 +4097,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
@@ -4120,10 +4107,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>582898</v>
+        <v>582879</v>
       </c>
       <c r="R35" t="n">
-        <v>6959678</v>
+        <v>6959670</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4160,7 +4147,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Färska och äldre ringhack på tall</t>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4187,45 +4174,53 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130870832</v>
+        <v>130870812</v>
       </c>
       <c r="B36" t="n">
-        <v>80383</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>583054</v>
+        <v>582898</v>
       </c>
       <c r="R36" t="n">
-        <v>6959568</v>
+        <v>6959678</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4258,6 +4253,11 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Färska och äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4284,10 +4284,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130870791</v>
+        <v>130870810</v>
       </c>
       <c r="B37" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4295,34 +4295,42 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>582769</v>
+        <v>582825</v>
       </c>
       <c r="R37" t="n">
-        <v>6959516</v>
+        <v>6959676</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4355,6 +4363,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4381,7 +4394,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130870810</v>
+        <v>130870808</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4414,7 +4427,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4424,10 +4437,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>582825</v>
+        <v>582781</v>
       </c>
       <c r="R38" t="n">
-        <v>6959676</v>
+        <v>6959717</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4464,7 +4477,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Äldre ringhack på tall</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4491,10 +4504,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130870808</v>
+        <v>130870791</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4502,42 +4515,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Pålmyrbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>582781</v>
+        <v>582769</v>
       </c>
       <c r="R39" t="n">
-        <v>6959717</v>
+        <v>6959516</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4570,11 +4575,6 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2026-01-25</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD39" t="b">
